--- a/example_reports/EJEMPLO-DATOS-RRHH-EMPLEADOS.xlsx
+++ b/example_reports/EJEMPLO-DATOS-RRHH-EMPLEADOS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="73">
   <si>
     <t>Código</t>
   </si>
@@ -237,13 +237,19 @@
   </si>
   <si>
     <t>Antonio10</t>
+  </si>
+  <si>
+    <t>Fecha Inicio</t>
+  </si>
+  <si>
+    <t>Salario Básico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,13 +265,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -280,11 +298,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +605,7 @@
     <col min="15" max="15" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -661,8 +684,14 @@
       <c r="Z1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -738,8 +767,14 @@
       <c r="Z2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA2" s="5">
+        <v>38937</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>2936.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -815,8 +850,14 @@
       <c r="Z3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA3" s="5">
+        <v>40179</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>939.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -892,8 +933,14 @@
       <c r="Z4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA4" s="5">
+        <v>39569</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>906.07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -969,8 +1016,14 @@
       <c r="Z5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA5" s="5">
+        <v>38808</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>1822.87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1046,8 +1099,14 @@
       <c r="Z6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA6" s="5">
+        <v>34064</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>6374.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1123,8 +1182,14 @@
       <c r="Z7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA7" s="5">
+        <v>40357</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>1911.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1200,8 +1265,14 @@
       <c r="Z8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA8" s="5">
+        <v>40238</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>679.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1277,8 +1348,14 @@
       <c r="Z9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA9" s="5">
+        <v>40238</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>943.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1354,8 +1431,14 @@
       <c r="Z10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA10" s="5">
+        <v>40210</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>1363.89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1431,25 +1514,31 @@
       <c r="Z11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA11" s="5">
+        <v>40238</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I12" s="1"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G13" s="2"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I14" s="1"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I16" s="1"/>
       <c r="O16" s="2"/>
     </row>

--- a/example_reports/EJEMPLO-DATOS-RRHH-EMPLEADOS.xlsx
+++ b/example_reports/EJEMPLO-DATOS-RRHH-EMPLEADOS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="77">
   <si>
     <t>Código</t>
   </si>
@@ -243,6 +243,18 @@
   </si>
   <si>
     <t>Salario Básico</t>
+  </si>
+  <si>
+    <t>Matricula Seguro</t>
+  </si>
+  <si>
+    <t>Seguro</t>
+  </si>
+  <si>
+    <t>CAJA PETROLERA</t>
+  </si>
+  <si>
+    <t>CAJA CORDES</t>
   </si>
 </sst>
 </file>
@@ -588,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB20"/>
+  <dimension ref="A1:AE20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AB11"/>
+      <selection activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +617,7 @@
     <col min="15" max="15" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -690,8 +702,14 @@
       <c r="AB1" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -773,8 +791,14 @@
       <c r="AB2" s="6">
         <v>2936.33</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC2">
+        <v>102512</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -856,8 +880,14 @@
       <c r="AB3" s="6">
         <v>939.62</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC3">
+        <v>102513</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -939,8 +969,14 @@
       <c r="AB4" s="6">
         <v>906.07</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC4">
+        <v>102514</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1022,8 +1058,14 @@
       <c r="AB5" s="6">
         <v>1822.87</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC5">
+        <v>102515</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1105,8 +1147,14 @@
       <c r="AB6" s="6">
         <v>6374.66</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC6">
+        <v>102516</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1188,8 +1236,14 @@
       <c r="AB7" s="6">
         <v>1911.23</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC7">
+        <v>102517</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1271,8 +1325,14 @@
       <c r="AB8" s="6">
         <v>679.55</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC8">
+        <v>102518</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1354,8 +1414,14 @@
       <c r="AB9" s="6">
         <v>943.85</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC9">
+        <v>102519</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1437,8 +1503,14 @@
       <c r="AB10" s="6">
         <v>1363.89</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC10">
+        <v>102520</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1520,38 +1592,45 @@
       <c r="AB11" s="6">
         <v>797</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC11">
+        <v>102521</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="I12" s="1"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="G13" s="2"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="I14" s="1"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="I16" s="1"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:31" x14ac:dyDescent="0.25">
       <c r="I17" s="1"/>
       <c r="S17" s="2"/>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="AE17" s="2"/>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
       <c r="F19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:31" x14ac:dyDescent="0.25">
       <c r="P20" s="2"/>
     </row>
   </sheetData>

--- a/example_reports/EJEMPLO-DATOS-RRHH-EMPLEADOS.xlsx
+++ b/example_reports/EJEMPLO-DATOS-RRHH-EMPLEADOS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="81">
   <si>
     <t>Código</t>
   </si>
@@ -255,6 +255,18 @@
   </si>
   <si>
     <t>CAJA CORDES</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Fecha Retiro</t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
+    <t>Inactivo</t>
   </si>
 </sst>
 </file>
@@ -600,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE20"/>
+  <dimension ref="A1:AF20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AE17" sqref="AE17"/>
+      <selection activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,9 +627,10 @@
     <col min="8" max="8" width="20.5703125" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" customWidth="1"/>
     <col min="15" max="15" width="28" customWidth="1"/>
+    <col min="31" max="31" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -708,8 +721,14 @@
       <c r="AD1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -797,8 +816,14 @@
       <c r="AD2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>39668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -886,8 +911,14 @@
       <c r="AD3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>40909</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -975,8 +1006,12 @@
       <c r="AD4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF4" s="5"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1064,8 +1099,12 @@
       <c r="AD5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF5" s="5"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1153,8 +1192,14 @@
       <c r="AD6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>35890</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1242,8 +1287,12 @@
       <c r="AD7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF7" s="5"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1331,8 +1380,14 @@
       <c r="AD8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>42064</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1420,8 +1475,12 @@
       <c r="AD9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF9" s="5"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1509,8 +1568,14 @@
       <c r="AD10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>42767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1598,25 +1663,29 @@
       <c r="AD11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF11" s="5"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I12" s="1"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G13" s="2"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I14" s="1"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I16" s="1"/>
       <c r="O16" s="2"/>
     </row>
